--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure management and governance/Describe features and tools for managing and deploying Azure resources.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure management and governance/Describe features and tools for managing and deploying Azure resources.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0EE7A0-C17E-4F18-801A-A76E43698606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="7845" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tools 4 interacting with Azure" sheetId="1" r:id="rId1"/>
@@ -140,18 +139,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -378,13 +377,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>237067</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>75863</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -422,13 +421,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>122695</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>85179</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -454,6 +453,82 @@
         <a:xfrm>
           <a:off x="1371600" y="10953750"/>
           <a:ext cx="9038095" cy="4371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>407895</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1666875"/>
+          <a:ext cx="13438095" cy="1933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>207981</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3810000"/>
+          <a:ext cx="12552381" cy="5180952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -727,46 +802,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -780,21 +855,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -807,142 +882,142 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="B26" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="B29" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
         <v>17</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
         <v>18</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E65" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="B33" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
         <v>21</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E67" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="B35" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
         <v>22</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E69" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="E36" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E70" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="B38" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
         <v>25</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E72" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="B41" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="B42" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="B43" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="B44" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B78" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="B46" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B80" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure management and governance/Describe features and tools for managing and deploying Azure resources.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure management and governance/Describe features and tools for managing and deploying Azure resources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="7845" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="7845" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tools 4 interacting with Azure" sheetId="1" r:id="rId1"/>
@@ -360,6 +360,44 @@
         <a:xfrm>
           <a:off x="685800" y="4905375"/>
           <a:ext cx="7057143" cy="1819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>74476</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>227976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4286250"/>
+          <a:ext cx="13790476" cy="4990476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -858,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -885,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
